--- a/TARIFAS/summary_andres.xlsx
+++ b/TARIFAS/summary_andres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javierparada/Documents/Repositories/Andres/TARIFAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CFFCA9-BF79-7E47-8C5D-5033CA266354}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E46B1F-4E7F-C741-97F5-7D98EF5C85CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{71612BF7-0A0C-4E5E-A78A-453CC11E4BBF}"/>
   </bookViews>
@@ -764,7 +764,7 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -983,13 +983,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="7">
-        <v>43527</v>
+        <v>70</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>40</v>
@@ -1024,13 +1024,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>82</v>
+        <v>69</v>
+      </c>
+      <c r="C7" s="7">
+        <v>43527</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>40</v>
